--- a/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
+++ b/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
+++ b/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
+++ b/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,75 +1505,67 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1591,21 +1575,13 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1613,23 +1589,31 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1663,21 +1647,29 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1687,7 +1679,7 @@
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1721,24 +1713,24 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -1748,8 +1740,16 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1757,63 +1757,47 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1831,21 +1815,29 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1855,7 +1847,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1889,19 +1881,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1911,7 +1903,7 @@
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1945,19 +1937,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -2001,19 +1993,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2057,19 +2049,19 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,7 +2071,7 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2103,29 +2095,21 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2159,12 +2143,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -2173,12 +2157,12 @@
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -2188,64 +2172,56 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2253,23 +2229,31 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2303,21 +2287,29 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2327,7 +2319,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2361,24 +2353,24 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -2388,72 +2380,64 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2471,21 +2455,29 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2495,7 +2487,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2529,19 +2521,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2551,7 +2543,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2585,19 +2577,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2641,19 +2633,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2697,19 +2689,19 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2719,53 +2711,45 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
@@ -2775,34 +2759,34 @@
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2813,12 +2797,12 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2828,16 +2812,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2845,12 +2821,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2861,17 +2837,17 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2885,12 +2861,12 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2901,7 +2877,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2916,21 +2892,29 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2941,7 +2925,7 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2951,21 +2935,13 @@
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2973,12 +2949,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2989,12 +2965,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -3013,12 +2989,12 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3029,12 +3005,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3044,21 +3020,29 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Tree preservation order details</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>tpo</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of any Tree Preservation Orders (TPO) affecting the development site</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>tpo-reference</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>TPO reference[]</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3069,7 +3053,7 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Reference for a Tree Preservation Order covering affected trees</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3079,21 +3063,13 @@
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Tree preservation order details</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>tpo</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
           <t>Details of any Tree Preservation Orders (TPO) affecting the development site</t>
@@ -3101,12 +3077,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>tpo-reference</t>
+          <t>tpo-provided-by</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>TPO reference[]</t>
+          <t>TPO provided by</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3117,12 +3093,12 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Reference for a Tree Preservation Order covering affected trees</t>
+          <t>How was the list of TPO references generated - by the applicant or system/service</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -3132,21 +3108,29 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Identification of tree(s) and description of works</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>tree-work-details</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Details of any Tree Preservation Orders (TPO) affecting the development site</t>
+          <t>Details of trees affected by the proposed development and what work is being done to them.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>tpo-provided-by</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>TPO provided by</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3157,31 +3141,23 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>How was the list of TPO references generated - by the applicant or system/service</t>
+          <t>Description of work applicant wishes to carry out, including identifying the trees, species and setting out the work</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Identification of tree(s) and description of works</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>tree-work-details</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Details of trees affected by the proposed development and what work is being done to them.</t>
@@ -3189,23 +3165,31 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>tree-details</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
+          <t>Tree details[]</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H52" s="2" t="inlineStr"/>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Description of work applicant wishes to carry out, including identifying the trees, species and setting out the work</t>
+          <t>Identifier for the tree, use the TPO identifier if applicable</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3239,12 +3223,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>species</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3253,7 +3237,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Identifier for the tree, use the TPO identifier if applicable</t>
+          <t>The species of the tree</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3263,7 +3247,7 @@
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3287,12 +3271,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>description-of-works</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Description of works</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3301,7 +3285,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>The species of the tree</t>
+          <t>Description of the nature of the work to be carried out on this tree</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3335,12 +3319,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>description-of-works</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Description of works</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr"/>
@@ -3349,7 +3333,7 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Description of the nature of the work to be carried out on this tree</t>
+          <t>Explain the reason for the work</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3383,12 +3367,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>replanting-description</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Replanting description</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr"/>
@@ -3397,7 +3381,7 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Explain the reason for the work</t>
+          <t>Details of replanting arrangements if applicable</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3412,40 +3396,40 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Trees additional information</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>trees-additional</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Details of trees affected by the proposed development and what work is being done to them.</t>
+          <t>Further details of any issues relating to trees on the site</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>tree-details</t>
+          <t>advice-from-authority</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Tree details[]</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>replanting-description</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>Replanting description</t>
-        </is>
-      </c>
+          <t>Advice from authority</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr"/>
       <c r="H57" s="2" t="inlineStr"/>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Details of replanting arrangements if applicable</t>
+          <t>Any advice provided on-site by a Local Planning Authority (LPA) officer</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3460,16 +3444,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Trees additional information</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>trees-additional</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Further details of any issues relating to trees on the site</t>
@@ -3477,12 +3453,12 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>advice-from-authority</t>
+          <t>condition-concerns</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Advice from authority</t>
+          <t>Condition concerns</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3493,17 +3469,17 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Any advice provided on-site by a Local Planning Authority (LPA) officer</t>
+          <t>Whether there are concerns the tree(s) are diseased or might break or fall</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3517,12 +3493,12 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>condition-concerns</t>
+          <t>causing-subsidence</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Condition concerns</t>
+          <t>Causing subsidence</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
@@ -3533,7 +3509,7 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Whether there are concerns the tree(s) are diseased or might break or fall</t>
+          <t>Whether subsidence damage is being caused by the tree(s)</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3557,12 +3533,12 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>causing-subsidence</t>
+          <t>causing-structural-damage</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Causing subsidence</t>
+          <t>Causing structural damage</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
@@ -3573,7 +3549,7 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Whether subsidence damage is being caused by the tree(s)</t>
+          <t>Whether structural damage is being caused by the tree(s)</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3597,28 +3573,36 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>causing-structural-damage</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Causing structural damage</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H61" s="2" t="inlineStr"/>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Whether structural damage is being caused by the tree(s)</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
@@ -3647,12 +3631,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3661,7 +3645,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3676,45 +3660,45 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n"/>
-      <c r="B63" s="2" t="n"/>
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Trees ownership</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>trees-ownership</t>
+        </is>
+      </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Further details of any issues relating to trees on the site</t>
+          <t>Who owns any trees affected by the proposed development.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>is-applicant-owner</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Is applicant owner</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Whether the applicant owns the trees affected by the proposed works</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3724,16 +3708,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>Trees ownership</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>trees-ownership</t>
-        </is>
-      </c>
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Who owns any trees affected by the proposed development.</t>
@@ -3741,33 +3717,49 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>is-applicant-owner</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Is applicant owner</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
+          <t>Tree owner[]</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Whether the applicant owns the trees affected by the proposed works</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3801,19 +3793,19 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3823,7 +3815,7 @@
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3857,19 +3849,19 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3913,19 +3905,19 @@
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3969,19 +3961,19 @@
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3991,7 +3983,7 @@
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4015,29 +4007,29 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>email</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -4047,7 +4039,7 @@
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4081,19 +4073,27 @@
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4147,89 +4147,25 @@
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n"/>
-      <c r="B72" s="2" t="n"/>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>Who owns any trees affected by the proposed development.</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>owner</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>Tree owner[]</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>contact-details</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="inlineStr">
-        <is>
-          <t>phone-numbers</t>
-        </is>
-      </c>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
-      <c r="L72" s="2" t="inlineStr">
-        <is>
-          <t>The priority of a number</t>
-        </is>
-      </c>
-      <c r="M72" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="N72" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -4237,30 +4173,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A43"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B64:B72"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
+++ b/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,75 +1441,67 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1527,21 +1511,13 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1549,23 +1525,31 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1599,21 +1583,29 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1623,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1657,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1684,8 +1676,16 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,63 +1693,47 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1767,21 +1751,29 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1791,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1825,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1847,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1881,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1937,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1993,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2015,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2039,29 +2031,21 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2095,12 +2079,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2109,12 +2093,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2124,64 +2108,56 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2189,23 +2165,31 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2239,21 +2223,29 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2263,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2297,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2324,72 +2316,64 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2407,21 +2391,29 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2431,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2465,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2487,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2521,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2577,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2633,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2655,53 +2647,45 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2711,34 +2695,34 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2749,12 +2733,12 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2764,16 +2748,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2781,12 +2757,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2797,17 +2773,17 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2797,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2837,7 +2813,7 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2852,21 +2828,29 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2877,7 +2861,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2887,21 +2871,13 @@
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2909,12 +2885,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2925,12 +2901,12 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2949,12 +2925,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2965,12 +2941,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2980,21 +2956,29 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Tree preservation order details</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>tpo</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of any Tree Preservation Orders (TPO) affecting the development site</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>tpo-reference</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>TPO reference[]</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3005,7 +2989,7 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Reference for a Tree Preservation Order covering affected trees</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -3015,21 +2999,13 @@
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Tree preservation order details</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>tpo</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Details of any Tree Preservation Orders (TPO) affecting the development site</t>
@@ -3037,12 +3013,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>tpo-reference</t>
+          <t>tpo-provided-by</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>TPO reference[]</t>
+          <t>TPO provided by</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3053,12 +3029,12 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Reference for a Tree Preservation Order covering affected trees</t>
+          <t>How was the list of TPO references generated - by the applicant or system/service</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3068,21 +3044,29 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n"/>
-      <c r="B50" s="2" t="n"/>
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Identification of tree(s) and description of works</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>tree-work-details</t>
+        </is>
+      </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Details of any Tree Preservation Orders (TPO) affecting the development site</t>
+          <t>Details of trees affected by the proposed development and what work is being done to them.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>tpo-provided-by</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>TPO provided by</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3093,31 +3077,23 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>How was the list of TPO references generated - by the applicant or system/service</t>
+          <t>Description of work applicant wishes to carry out, including identifying the trees, species and setting out the work</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>Identification of tree(s) and description of works</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>tree-work-details</t>
-        </is>
-      </c>
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Details of trees affected by the proposed development and what work is being done to them.</t>
@@ -3125,23 +3101,31 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>tree-details</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
+          <t>Tree details[]</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Description of work applicant wishes to carry out, including identifying the trees, species and setting out the work</t>
+          <t>Identifier for the tree, use the TPO identifier if applicable</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3175,12 +3159,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>species</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3189,7 +3173,7 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Identifier for the tree, use the TPO identifier if applicable</t>
+          <t>The species of the tree</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3199,7 +3183,7 @@
       </c>
       <c r="N52" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3223,12 +3207,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>description-of-works</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Description of works</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3237,7 +3221,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>The species of the tree</t>
+          <t>Description of the nature of the work to be carried out on this tree</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3271,12 +3255,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>description-of-works</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Description of works</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3285,7 +3269,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Description of the nature of the work to be carried out on this tree</t>
+          <t>Explain the reason for the work</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3319,12 +3303,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>replanting-description</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Replanting description</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr"/>
@@ -3333,7 +3317,7 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Explain the reason for the work</t>
+          <t>Details of replanting arrangements if applicable</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3348,40 +3332,40 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Trees additional information</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>trees-additional</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Details of trees affected by the proposed development and what work is being done to them.</t>
+          <t>Further details of any issues relating to trees on the site</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>tree-details</t>
+          <t>advice-from-authority</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Tree details[]</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>replanting-description</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>Replanting description</t>
-        </is>
-      </c>
+          <t>Advice from authority</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr"/>
       <c r="H56" s="2" t="inlineStr"/>
       <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Details of replanting arrangements if applicable</t>
+          <t>Any advice provided on-site by a Local Planning Authority (LPA) officer</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3396,16 +3380,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Trees additional information</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>trees-additional</t>
-        </is>
-      </c>
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Further details of any issues relating to trees on the site</t>
@@ -3413,12 +3389,12 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>advice-from-authority</t>
+          <t>condition-concerns</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Advice from authority</t>
+          <t>Condition concerns</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3429,17 +3405,17 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Any advice provided on-site by a Local Planning Authority (LPA) officer</t>
+          <t>Whether there are concerns the tree(s) are diseased or might break or fall</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3453,12 +3429,12 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>condition-concerns</t>
+          <t>causing-subsidence</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Condition concerns</t>
+          <t>Causing subsidence</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3469,7 +3445,7 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Whether there are concerns the tree(s) are diseased or might break or fall</t>
+          <t>Whether subsidence damage is being caused by the tree(s)</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3493,12 +3469,12 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>causing-subsidence</t>
+          <t>causing-structural-damage</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Causing subsidence</t>
+          <t>Causing structural damage</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
@@ -3509,7 +3485,7 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Whether subsidence damage is being caused by the tree(s)</t>
+          <t>Whether structural damage is being caused by the tree(s)</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3533,28 +3509,36 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>causing-structural-damage</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Causing structural damage</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Whether structural damage is being caused by the tree(s)</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
@@ -3583,12 +3567,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3597,7 +3581,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3612,45 +3596,45 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Trees ownership</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>trees-ownership</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Further details of any issues relating to trees on the site</t>
+          <t>Who owns any trees affected by the proposed development.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>is-applicant-owner</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Is applicant owner</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr"/>
       <c r="H62" s="2" t="inlineStr"/>
       <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Whether the applicant owns the trees affected by the proposed works</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -3660,16 +3644,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Trees ownership</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>trees-ownership</t>
-        </is>
-      </c>
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Who owns any trees affected by the proposed development.</t>
@@ -3677,33 +3653,49 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>is-applicant-owner</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Is applicant owner</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr"/>
+          <t>Tree owner[]</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Whether the applicant owns the trees affected by the proposed works</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3737,19 +3729,19 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3759,7 +3751,7 @@
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3793,19 +3785,19 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3849,19 +3841,19 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3905,19 +3897,19 @@
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3927,7 +3919,7 @@
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3951,29 +3943,29 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>email</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3983,7 +3975,7 @@
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4017,19 +4009,27 @@
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4083,89 +4083,25 @@
       </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>Who owns any trees affected by the proposed development.</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>owner</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>Tree owner[]</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>contact-details</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>phone-numbers</t>
-        </is>
-      </c>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
-      <c r="L71" s="2" t="inlineStr">
-        <is>
-          <t>The priority of a number</t>
-        </is>
-      </c>
-      <c r="M71" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="N71" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -4173,30 +4109,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A63:A71"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A42"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A62:A70"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A41"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B62:B70"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
+++ b/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,67 +1441,75 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1511,13 +1519,21 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1525,31 +1541,23 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1583,29 +1591,21 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1676,16 +1676,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,47 +1685,63 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1751,29 +1759,21 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1817,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1873,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1929,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1985,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2031,21 +2031,29 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,12 +2087,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>user-role</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2093,12 +2101,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2108,56 +2116,64 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>user-role</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2165,31 +2181,23 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2223,29 +2231,21 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2289,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2316,64 +2316,72 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2391,29 +2399,21 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2457,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2513,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2569,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2625,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2647,45 +2647,53 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>checklist</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2695,34 +2703,34 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Conflict of interest</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>conflict-of-interest</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2733,12 +2741,12 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2748,8 +2756,16 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2757,12 +2773,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2773,17 +2789,17 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2797,12 +2813,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2813,7 +2829,7 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2828,29 +2844,21 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2861,7 +2869,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2871,13 +2879,21 @@
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2885,12 +2901,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2901,12 +2917,12 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2925,12 +2941,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2941,12 +2957,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2956,29 +2972,21 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Tree preservation order details</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>tpo</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Details of any Tree Preservation Orders (TPO) affecting the development site</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>tpo-reference</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>TPO reference[]</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -2989,7 +2997,7 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Reference for a Tree Preservation Order covering affected trees</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -2999,13 +3007,21 @@
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Tree preservation order details</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>tpo</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Details of any Tree Preservation Orders (TPO) affecting the development site</t>
@@ -3013,12 +3029,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>tpo-provided-by</t>
+          <t>tpo-reference</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>TPO provided by</t>
+          <t>TPO reference[]</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3029,12 +3045,12 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>How was the list of TPO references generated - by the applicant or system/service</t>
+          <t>Reference for a Tree Preservation Order covering affected trees</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3044,29 +3060,21 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Identification of tree(s) and description of works</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>tree-work-details</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Details of trees affected by the proposed development and what work is being done to them.</t>
+          <t>Details of any Tree Preservation Orders (TPO) affecting the development site</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>tpo-provided-by</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>TPO provided by</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3077,23 +3085,31 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Description of work applicant wishes to carry out, including identifying the trees, species and setting out the work</t>
+          <t>How was the list of TPO references generated - by the applicant or system/service</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Identification of tree(s) and description of works</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>tree-work-details</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Details of trees affected by the proposed development and what work is being done to them.</t>
@@ -3101,31 +3117,23 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>tree-details</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Tree details[]</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Identifier for the tree, use the TPO identifier if applicable</t>
+          <t>Description of work applicant wishes to carry out, including identifying the trees, species and setting out the work</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3159,12 +3167,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3173,7 +3181,7 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>The species of the tree</t>
+          <t>Identifier for the tree, use the TPO identifier if applicable</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3183,7 +3191,7 @@
       </c>
       <c r="N52" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3207,12 +3215,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>description-of-works</t>
+          <t>species</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Description of works</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3221,7 +3229,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Description of the nature of the work to be carried out on this tree</t>
+          <t>The species of the tree</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3255,12 +3263,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>description-of-works</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Description of works</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3269,7 +3277,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Explain the reason for the work</t>
+          <t>Description of the nature of the work to be carried out on this tree</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3303,12 +3311,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>replanting-description</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Replanting description</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr"/>
@@ -3317,7 +3325,7 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Details of replanting arrangements if applicable</t>
+          <t>Explain the reason for the work</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3332,40 +3340,40 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Trees additional information</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>trees-additional</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Further details of any issues relating to trees on the site</t>
+          <t>Details of trees affected by the proposed development and what work is being done to them.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>advice-from-authority</t>
+          <t>tree-details</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Advice from authority</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
+          <t>Tree details[]</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>replanting-description</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>Replanting description</t>
+        </is>
+      </c>
       <c r="H56" s="2" t="inlineStr"/>
       <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Any advice provided on-site by a Local Planning Authority (LPA) officer</t>
+          <t>Details of replanting arrangements if applicable</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3380,8 +3388,16 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Trees additional information</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>trees-additional</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Further details of any issues relating to trees on the site</t>
@@ -3389,12 +3405,12 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>condition-concerns</t>
+          <t>advice-from-authority</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Condition concerns</t>
+          <t>Advice from authority</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3405,17 +3421,17 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Whether there are concerns the tree(s) are diseased or might break or fall</t>
+          <t>Any advice provided on-site by a Local Planning Authority (LPA) officer</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3429,12 +3445,12 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>causing-subsidence</t>
+          <t>condition-concerns</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Causing subsidence</t>
+          <t>Condition concerns</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3445,7 +3461,7 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Whether subsidence damage is being caused by the tree(s)</t>
+          <t>Whether there are concerns the tree(s) are diseased or might break or fall</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3469,12 +3485,12 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>causing-structural-damage</t>
+          <t>causing-subsidence</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Causing structural damage</t>
+          <t>Causing subsidence</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
@@ -3485,7 +3501,7 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Whether structural damage is being caused by the tree(s)</t>
+          <t>Whether subsidence damage is being caused by the tree(s)</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3509,36 +3525,28 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>causing-structural-damage</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Causing structural damage</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Whether structural damage is being caused by the tree(s)</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
@@ -3567,12 +3575,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3581,7 +3589,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -4109,30 +4117,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A62:A70"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42"/>
     <mergeCell ref="B62:B70"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
+++ b/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
+++ b/generated/spreadsheet/verbose/consent-under-tpo-consent-under-tpo-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
